--- a/설계/DB/금어기 정리.xlsx
+++ b/설계/DB/금어기 정리.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김남진\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FishDic\설계\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50AA14CF-D570-430F-93AC-F67D5CC9FFA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C69CE6E-D722-4FD1-89C9-860D8983CB75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6030F353-3779-47EC-A7F1-EE7D2908B099}"/>
+    <workbookView xWindow="3705" yWindow="630" windowWidth="26070" windowHeight="14865" activeTab="1" xr2:uid="{6030F353-3779-47EC-A7F1-EE7D2908B099}"/>
   </bookViews>
   <sheets>
     <sheet name="금어기 기간" sheetId="1" r:id="rId1"/>
     <sheet name="금지체장" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'금어기 기간'!$A$1:$D$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">금지체장!$A$1:$D$42</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -763,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDB368E-8492-4207-AC4C-72477A682867}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -791,134 +795,132 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>44197</v>
+        <v>44256</v>
       </c>
       <c r="C2" s="2">
-        <v>44561</v>
+        <v>44377</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2">
-        <v>44212</v>
+        <v>44378</v>
       </c>
       <c r="C3" s="2">
-        <v>44242</v>
+        <v>44408</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>44256</v>
+        <v>44317</v>
       </c>
       <c r="C4" s="2">
-        <v>44377</v>
+        <v>44347</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="C5" s="2">
-        <v>44347</v>
+        <v>44408</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2">
-        <v>44287</v>
+        <v>44501</v>
       </c>
       <c r="C6" s="2">
-        <v>44347</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>44592</v>
+      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C7" s="2">
-        <v>44377</v>
+        <v>44439</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>44287</v>
       </c>
       <c r="C8" s="2">
-        <v>44408</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>44377</v>
+      </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2">
         <v>44317</v>
       </c>
       <c r="C9" s="2">
-        <v>44347</v>
+        <v>44408</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2">
-        <v>44317</v>
+        <v>44368</v>
       </c>
       <c r="C10" s="2">
-        <v>44347</v>
+        <v>44428</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2">
-        <v>44332</v>
+        <v>44378</v>
       </c>
       <c r="C11" s="2">
-        <v>44377</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>44439</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="C12" s="2">
         <v>44377</v>
@@ -927,285 +929,283 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>44317</v>
+        <v>44440</v>
       </c>
       <c r="C13" s="2">
-        <v>44392</v>
+        <v>44530</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2">
-        <v>44317</v>
+        <v>44378</v>
       </c>
       <c r="C14" s="2">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="C15" s="2">
-        <v>44408</v>
+        <v>44530</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2">
-        <v>44317</v>
+        <v>44212</v>
       </c>
       <c r="C16" s="2">
-        <v>44408</v>
+        <v>44242</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
         <v>44317</v>
       </c>
       <c r="C17" s="2">
-        <v>44408</v>
+        <v>44377</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>44327</v>
+        <v>44317</v>
       </c>
       <c r="C18" s="2">
-        <v>44439</v>
+        <v>44408</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2">
-        <v>44348</v>
+        <v>44470</v>
       </c>
       <c r="C19" s="2">
-        <v>44377</v>
+        <v>44681</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2">
-        <v>44348</v>
+        <v>44409</v>
       </c>
       <c r="C20" s="2">
-        <v>44392</v>
+        <v>44469</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>44368</v>
+        <v>44317</v>
       </c>
       <c r="C21" s="2">
-        <v>44428</v>
+        <v>44408</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2">
-        <v>44378</v>
+        <v>44197</v>
       </c>
       <c r="C22" s="2">
-        <v>44439</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>44561</v>
+      </c>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B23" s="2">
-        <v>44348</v>
+        <v>44531</v>
       </c>
       <c r="C23" s="2">
-        <v>44439</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>44592</v>
+      </c>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2">
         <v>44378</v>
       </c>
       <c r="C24" s="2">
-        <v>44469</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>44428</v>
+      </c>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2">
-        <v>44348</v>
+        <v>44387</v>
       </c>
       <c r="C25" s="2">
-        <v>44469</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>44433</v>
+      </c>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2">
         <v>44348</v>
       </c>
       <c r="C26" s="2">
-        <v>44439</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>44387</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B27" s="2">
-        <v>44363</v>
+        <v>44287</v>
       </c>
       <c r="C27" s="2">
-        <v>44469</v>
+        <v>44347</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="C28" s="2">
-        <v>44469</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>44347</v>
+      </c>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2">
-        <v>44348</v>
+        <v>44363</v>
       </c>
       <c r="C29" s="2">
-        <v>44530</v>
+        <v>44469</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="C30" s="2">
-        <v>44408</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>44469</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="C31" s="2">
-        <v>44408</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>44439</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>44308</v>
+        <v>44378</v>
       </c>
       <c r="C32" s="2">
-        <v>44418</v>
+        <v>44469</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="C33" s="2">
-        <v>44408</v>
-      </c>
-      <c r="D33" s="1"/>
+        <v>44469</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C34" s="2">
-        <v>44428</v>
+        <v>44530</v>
       </c>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2">
         <v>44378</v>
@@ -1217,184 +1217,188 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2">
-        <v>44378</v>
+        <v>44398</v>
       </c>
       <c r="C36" s="2">
-        <v>44439</v>
+        <v>44428</v>
       </c>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2">
-        <v>44378</v>
+        <v>44501</v>
       </c>
       <c r="C37" s="2">
-        <v>44439</v>
+        <v>44681</v>
       </c>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2">
-        <v>44378</v>
+        <v>44440</v>
       </c>
       <c r="C38" s="2">
-        <v>44439</v>
+        <v>44500</v>
       </c>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2">
-        <v>44387</v>
+        <v>44470</v>
       </c>
       <c r="C39" s="2">
-        <v>44433</v>
-      </c>
-      <c r="D39" s="1"/>
+        <v>44561</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B40" s="2">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="C40" s="2">
-        <v>44387</v>
+        <v>44392</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B41" s="2">
-        <v>44398</v>
+        <v>44327</v>
       </c>
       <c r="C41" s="2">
-        <v>44428</v>
+        <v>44439</v>
       </c>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2">
-        <v>44409</v>
+        <v>44501</v>
       </c>
       <c r="C42" s="2">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B43" s="2">
-        <v>44440</v>
+        <v>44332</v>
       </c>
       <c r="C43" s="2">
-        <v>44500</v>
+        <v>44377</v>
       </c>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B44" s="2">
-        <v>44470</v>
+        <v>44378</v>
       </c>
       <c r="C44" s="2">
-        <v>44561</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>44408</v>
+      </c>
+      <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B45" s="2">
-        <v>44440</v>
+        <v>44308</v>
       </c>
       <c r="C45" s="2">
-        <v>44530</v>
+        <v>44418</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B46" s="2">
-        <v>44470</v>
+        <v>44348</v>
       </c>
       <c r="C46" s="2">
-        <v>44681</v>
+        <v>44392</v>
       </c>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B47" s="2">
-        <v>44470</v>
+        <v>44287</v>
       </c>
       <c r="C47" s="2">
-        <v>44530</v>
-      </c>
-      <c r="D47" s="1"/>
+        <v>44408</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B48" s="2">
-        <v>44470</v>
+        <v>44378</v>
       </c>
       <c r="C48" s="2">
-        <v>44592</v>
+        <v>44439</v>
       </c>
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B49" s="2">
-        <v>44501</v>
+        <v>44287</v>
       </c>
       <c r="C49" s="2">
-        <v>44561</v>
-      </c>
-      <c r="D49" s="1"/>
+        <v>44347</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="C50" s="2">
         <v>44592</v>
@@ -1403,29 +1407,34 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B51" s="2">
-        <v>44501</v>
+        <v>44348</v>
       </c>
       <c r="C51" s="2">
-        <v>44681</v>
+        <v>44439</v>
       </c>
       <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B52" s="2">
-        <v>44531</v>
+        <v>44378</v>
       </c>
       <c r="C52" s="2">
-        <v>44592</v>
+        <v>44408</v>
       </c>
       <c r="D52" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D52" xr:uid="{AD412770-C8F0-4BB9-A2A2-BB64981EFB94}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D52">
+      <sortCondition ref="A1:A52"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1436,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFD8B49-71AD-4EC0-9679-DBD09CA8993E}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1463,132 +1472,134 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
-        <v>20</v>
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3">
+        <v>18</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1.5</v>
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>25</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="1">
-        <v>40</v>
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3">
+        <v>26</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="1">
-        <v>30</v>
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3">
+        <v>21</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1">
-        <v>600</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="1">
-        <v>24</v>
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6.4</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="1">
-        <v>30</v>
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="1">
-        <v>15</v>
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3">
+        <v>9</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
         <v>35</v>
       </c>
       <c r="C14" s="1"/>
@@ -1596,301 +1607,304 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="1">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1">
+        <v>600</v>
+      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="1">
-        <v>24</v>
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="3">
+        <v>18</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3">
         <v>20</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="3">
-        <v>35</v>
+      <c r="A22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="1">
+        <v>30</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B23" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="3">
-        <v>7</v>
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="1">
+        <v>15</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="3">
-        <v>21</v>
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="1">
+        <v>35</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B26" s="3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B27" s="3">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="3">
-        <v>6.4</v>
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1">
+        <v>20</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B30" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="3">
-        <v>10</v>
+      <c r="A31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="1">
+        <v>23</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B32" s="3">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="3">
-        <v>18</v>
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1">
+        <v>20</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="3">
-        <v>15</v>
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1">
+        <v>24</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B36" s="3">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="3">
-        <v>5</v>
+      <c r="A37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1">
+        <v>20</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" s="3">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B39" s="3">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B40" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="3">
-        <v>20</v>
+      <c r="A41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="1">
+        <v>15</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="3">
+      <c r="A42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="1">
         <v>20</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D42" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D42" xr:uid="{D5FA6E86-DBB8-4526-B5A3-B53D8F45C862}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D42">
+      <sortCondition ref="A1:A42"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
